--- a/public/templates/template_data_latih.xlsx
+++ b/public/templates/template_data_latih.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\Fuzzy-knn\Tugas-akhir\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectakhir\Tugas-akhir\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8705F7-4EBE-4A39-91D7-7F910F301481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C856B0DD-8B68-4C14-9C89-39B5C575D6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>nisn</t>
   </si>
@@ -59,13 +59,37 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>kurang</t>
+  </si>
+  <si>
+    <t>cukup</t>
+  </si>
+  <si>
+    <t>contoh</t>
+  </si>
+  <si>
+    <t>lulus</t>
+  </si>
+  <si>
+    <t>lulus bersyarat</t>
+  </si>
+  <si>
+    <t>tidak lulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kurang </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +97,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,17 +126,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -114,22 +397,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataSiswaTable" displayName="DataSiswaTable" ref="A1:M2" insertRow="1">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataSiswaTable" displayName="DataSiswaTable" ref="A1:M5" dataDxfId="0">
+  <autoFilter ref="A1:M5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nisn"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nama"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="semester_1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="semester_2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="semester_3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="semester_4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="semester_5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="semester_6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="usp"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sikap"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="kerapian"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="kerajinan"/>
-    <tableColumn id="13" xr3:uid="{4D1BC1AD-7F73-41F6-B6B6-846FE3B8486C}" name="status"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nisn" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nama" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="semester_1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="semester_2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="semester_3" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="semester_4" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="semester_5" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="semester_6" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="usp" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sikap" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="kerapian" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="kerajinan" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{4D1BC1AD-7F73-41F6-B6B6-846FE3B8486C}" name="status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,13 +703,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -467,6 +760,170 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>9900012340</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>9900012341</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>89</v>
+      </c>
+      <c r="F3" s="3">
+        <v>89</v>
+      </c>
+      <c r="G3" s="3">
+        <v>78</v>
+      </c>
+      <c r="H3" s="3">
+        <v>89</v>
+      </c>
+      <c r="I3" s="3">
+        <v>89</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>9900012342</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3">
+        <v>77</v>
+      </c>
+      <c r="F4" s="3">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3">
+        <v>55</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>9900012343</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3">
+        <v>79</v>
+      </c>
+      <c r="G5" s="3">
+        <v>79</v>
+      </c>
+      <c r="H5" s="3">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3">
+        <v>69</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
